--- a/administration/templates/student_records.xlsx
+++ b/administration/templates/student_records.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imgre\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0FBEC5-0D89-4765-83AD-F41DD042887C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5BBE24-7311-4E69-ADDA-C7DC7A712EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>LRN</t>
   </si>
@@ -40,12 +40,6 @@
     <t>Email</t>
   </si>
   <si>
-    <t>SectionName</t>
-  </si>
-  <si>
-    <t>GradeLevel</t>
-  </si>
-  <si>
     <t>100000024</t>
   </si>
   <si>
@@ -61,17 +55,26 @@
     <t>Male</t>
   </si>
   <si>
-    <t>john.smith@example.com</t>
-  </si>
-  <si>
     <t>Alon</t>
+  </si>
+  <si>
+    <t>Birtdate(mm/dd/yyyy)</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>JM@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +86,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -120,16 +131,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -432,15 +450,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="A3:I6"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.36328125" customWidth="1"/>
+    <col min="2" max="2" width="19.54296875" customWidth="1"/>
+    <col min="3" max="3" width="12.36328125" customWidth="1"/>
+    <col min="4" max="4" width="17.90625" customWidth="1"/>
+    <col min="6" max="6" width="21.08984375" customWidth="1"/>
+    <col min="7" max="7" width="15.36328125" customWidth="1"/>
+    <col min="8" max="8" width="12.81640625" customWidth="1"/>
+    <col min="9" max="9" width="20.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -457,42 +485,51 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="2">
+        <v>39003</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2">
-        <v>7</v>
+      <c r="I2" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{D1328936-0162-46A5-8F3F-13D0D34F7DA1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>